--- a/outputs-HGR-r202-archive/g__Alistipes_A.xlsx
+++ b/outputs-HGR-r202-archive/g__Alistipes_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,47 +655,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT78910.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.1239638780193807</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.006937580861389868</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5080011609762618</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0001102167926639018</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0001309875329323829</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3121124539543914</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0487437218629799</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.5080011609762618</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A sp900240235</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>s__Alistipes_A sp900240235(reject)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
